--- a/History.xlsx
+++ b/History.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>List of player</t>
   </si>
@@ -29,7 +29,7 @@
     <t>Is correct</t>
   </si>
   <si>
-    <t>Cau 1</t>
+    <t>Question 1</t>
   </si>
   <si>
     <t>D</t>
@@ -38,16 +38,22 @@
     <t>A</t>
   </si>
   <si>
-    <t>Cau 2</t>
+    <t>Question 2</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Question 3</t>
   </si>
   <si>
     <t>B</t>
   </si>
   <si>
-    <t>Cau 3</t>
+    <t>Question 4</t>
   </si>
   <si>
-    <t>C</t>
+    <t>Question 5</t>
   </si>
 </sst>
 </file>
@@ -92,7 +98,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -150,12 +156,40 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="b">
         <v>0</v>
       </c>
     </row>
